--- a/Code/Results/Cases/Case_4_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.51219804174313</v>
+        <v>17.71117788448332</v>
       </c>
       <c r="C2">
-        <v>14.63499351068515</v>
+        <v>9.661469030192695</v>
       </c>
       <c r="D2">
-        <v>7.171265221831964</v>
+        <v>5.989860096844992</v>
       </c>
       <c r="E2">
-        <v>6.21559612621028</v>
+        <v>10.72848934388817</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.07337764373072</v>
+        <v>3.64377339384029</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.87563016227356</v>
+        <v>23.07526773664336</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.509293286677117</v>
+        <v>10.01890219430437</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.55666812530605</v>
+        <v>23.98335557137605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85329528074864</v>
+        <v>17.07286101768012</v>
       </c>
       <c r="C3">
-        <v>13.82351560324821</v>
+        <v>9.259337782351659</v>
       </c>
       <c r="D3">
-        <v>6.669796671218477</v>
+        <v>5.872329053787829</v>
       </c>
       <c r="E3">
-        <v>6.302655403291359</v>
+        <v>10.77420638434491</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.080385323094334</v>
+        <v>3.646372829342612</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.09249371882871</v>
+        <v>23.22300447214236</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.231002295052244</v>
+        <v>9.989179164861625</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.32946091461877</v>
+        <v>24.06633309052217</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.77532841318756</v>
+        <v>16.67009769285838</v>
       </c>
       <c r="C4">
-        <v>13.3011913399333</v>
+        <v>9.001820436786817</v>
       </c>
       <c r="D4">
-        <v>6.345219080771559</v>
+        <v>5.800802879549401</v>
       </c>
       <c r="E4">
-        <v>6.360082484349109</v>
+        <v>10.80407056797581</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.084808183345741</v>
+        <v>3.648052754573518</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.24589161455188</v>
+        <v>23.32017252398105</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.058886814558483</v>
+        <v>9.972696776110352</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.21271639590221</v>
+        <v>24.12497903031254</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32100130280796</v>
+        <v>16.50348254199347</v>
       </c>
       <c r="C5">
-        <v>13.08237034256695</v>
+        <v>8.894310697397648</v>
       </c>
       <c r="D5">
-        <v>6.214549049691264</v>
+        <v>5.771860426893751</v>
       </c>
       <c r="E5">
-        <v>6.384454239919705</v>
+        <v>10.81669189474239</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.086641816405482</v>
+        <v>3.648758496418333</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.31315483818422</v>
+        <v>23.36138854352884</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.988528270459525</v>
+        <v>9.966429102599742</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.17068118142155</v>
+        <v>24.15080290365828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24464862148117</v>
+        <v>16.47567352544783</v>
       </c>
       <c r="C6">
-        <v>13.0456777095393</v>
+        <v>8.876306741751888</v>
       </c>
       <c r="D6">
-        <v>6.195108642394983</v>
+        <v>5.767068245224608</v>
       </c>
       <c r="E6">
-        <v>6.388558919086481</v>
+        <v>10.81881493308665</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.086948209482294</v>
+        <v>3.648876964335483</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.32460147649109</v>
+        <v>23.36833010340684</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.97683488280855</v>
+        <v>9.965415604937482</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.16403001808195</v>
+        <v>24.15520690088421</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.76926226941628</v>
+        <v>16.66786039494869</v>
       </c>
       <c r="C7">
-        <v>13.29826428397987</v>
+        <v>9.000380786354823</v>
       </c>
       <c r="D7">
-        <v>6.343395352395873</v>
+        <v>5.800411662243688</v>
       </c>
       <c r="E7">
-        <v>6.360407280475244</v>
+        <v>10.80423895526849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.08483278432189</v>
+        <v>3.648062186690457</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.24677993603566</v>
+        <v>23.3207218271938</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.057938696505047</v>
+        <v>9.972610424275501</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.21212732558915</v>
+        <v>24.12531951928944</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95246729843543</v>
+        <v>17.49347060447833</v>
       </c>
       <c r="C8">
-        <v>14.36023470421425</v>
+        <v>9.52507022743854</v>
       </c>
       <c r="D8">
-        <v>7.001793397310518</v>
+        <v>5.949229493935099</v>
       </c>
       <c r="E8">
-        <v>6.244771377096261</v>
+        <v>10.74388051718105</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.075769629656926</v>
+        <v>3.644652316640766</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.94599222606102</v>
+        <v>23.12486449394033</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.413649285099106</v>
+        <v>10.00828966140699</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47349848660234</v>
+        <v>24.01036251249583</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.7676634645819</v>
+        <v>19.01724152691436</v>
       </c>
       <c r="C9">
-        <v>16.24933124095359</v>
+        <v>10.46618683881747</v>
       </c>
       <c r="D9">
-        <v>8.162611634733864</v>
+        <v>6.244196950641116</v>
       </c>
       <c r="E9">
-        <v>6.0509783514844</v>
+        <v>10.63973302164413</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.058897732074972</v>
+        <v>3.638627729650044</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.53322066635613</v>
+        <v>22.79222518462969</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.097777846365634</v>
+        <v>10.09206491455631</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.17379452216568</v>
+        <v>23.84645094375662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.29404031143652</v>
+        <v>20.06785006296975</v>
       </c>
       <c r="C10">
-        <v>17.51764437651289</v>
+        <v>11.10005955179574</v>
       </c>
       <c r="D10">
-        <v>8.938939819690502</v>
+        <v>6.460307712340104</v>
       </c>
       <c r="E10">
-        <v>5.930937822607682</v>
+        <v>10.5718577999614</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.046972839681625</v>
+        <v>3.63460059118349</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.36237396063671</v>
+        <v>22.57947466802527</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.588257051639431</v>
+        <v>10.16171618618792</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.81106713518124</v>
+        <v>23.76410125330559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.38499259492656</v>
+        <v>20.52896813591924</v>
       </c>
       <c r="C11">
-        <v>18.06867225700356</v>
+        <v>11.37527455712974</v>
       </c>
       <c r="D11">
-        <v>9.276171527958567</v>
+        <v>6.557987826154276</v>
       </c>
       <c r="E11">
-        <v>5.88174641985094</v>
+        <v>10.54285131291695</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.041631139083107</v>
+        <v>3.632854239816731</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.3191785534603</v>
+        <v>22.4896229472925</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.808138041176242</v>
+        <v>10.19508601962532</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.12905241756539</v>
+        <v>23.73501657131639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.78986972133608</v>
+        <v>20.70103406935698</v>
       </c>
       <c r="C12">
-        <v>18.27362215536539</v>
+        <v>11.47755907197065</v>
       </c>
       <c r="D12">
-        <v>9.401641708415115</v>
+        <v>6.594846745146757</v>
       </c>
       <c r="E12">
-        <v>5.863951348906221</v>
+        <v>10.53213596080057</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.039618587151332</v>
+        <v>3.632205179504199</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.30829051946339</v>
+        <v>22.45660058095287</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.890898920524968</v>
+        <v>10.20795764283464</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.2536016785285</v>
+        <v>23.72521553318078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.7030364473131</v>
+        <v>20.66409190682555</v>
       </c>
       <c r="C13">
-        <v>18.22964722599505</v>
+        <v>11.45561689116999</v>
       </c>
       <c r="D13">
-        <v>9.374717776427758</v>
+        <v>6.586914929805656</v>
       </c>
       <c r="E13">
-        <v>5.867745886266369</v>
+        <v>10.53443175228434</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.040051599750026</v>
+        <v>3.632344422703104</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.31038401290145</v>
+        <v>22.4636678522028</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.873097743568726</v>
+        <v>10.20517516534092</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.22659239315502</v>
+        <v>23.72727230470037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.4184664380205</v>
+        <v>20.54317589646254</v>
       </c>
       <c r="C14">
-        <v>18.08560786600638</v>
+        <v>11.38372854295067</v>
       </c>
       <c r="D14">
-        <v>9.286538426959174</v>
+        <v>6.56102306612856</v>
       </c>
       <c r="E14">
-        <v>5.880265392785917</v>
+        <v>10.54196436871043</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.041465370394276</v>
+        <v>3.632800596202709</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.31817023291883</v>
+        <v>22.48688604980221</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.814957089156261</v>
+        <v>10.19614030425024</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.13921575889742</v>
+        <v>23.73418588553051</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.24308997366064</v>
+        <v>20.46877569655037</v>
       </c>
       <c r="C15">
-        <v>17.9968968658398</v>
+        <v>11.33944187149084</v>
       </c>
       <c r="D15">
-        <v>9.23223711353805</v>
+        <v>6.545145420861978</v>
       </c>
       <c r="E15">
-        <v>5.888044080756921</v>
+        <v>10.54661331145718</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.042332625498896</v>
+        <v>3.633081608353573</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.32366700738265</v>
+        <v>22.50123860816261</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.77927780025194</v>
+        <v>10.19063660251876</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.08623630047379</v>
+        <v>23.73857881258067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.22158264986308</v>
+        <v>20.03736496184175</v>
       </c>
       <c r="C16">
-        <v>17.48111268179099</v>
+        <v>11.0818052943662</v>
       </c>
       <c r="D16">
-        <v>8.916585352583759</v>
+        <v>6.453907959081977</v>
       </c>
       <c r="E16">
-        <v>5.934266054502206</v>
+        <v>10.57379106215284</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.047323460449974</v>
+        <v>3.634716436462514</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.36593434830938</v>
+        <v>22.58548664469919</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.573818662727293</v>
+        <v>10.15956869666263</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.79085963695032</v>
+        <v>23.76617127752787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.58008530397662</v>
+        <v>19.76830352593285</v>
       </c>
       <c r="C17">
-        <v>17.15806111666504</v>
+        <v>10.9203549753918</v>
       </c>
       <c r="D17">
-        <v>8.718904633289588</v>
+        <v>6.39774640847906</v>
       </c>
       <c r="E17">
-        <v>5.964045441405091</v>
+        <v>10.59094263129646</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.050405268951538</v>
+        <v>3.635741231176686</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.4010599387658</v>
+        <v>22.63894917812513</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.446916105209326</v>
+        <v>10.14093618194216</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.6169205024886</v>
+        <v>23.78524983504497</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.20561574243897</v>
+        <v>19.61197111263319</v>
       </c>
       <c r="C18">
-        <v>16.9698074464271</v>
+        <v>10.8262586628969</v>
       </c>
       <c r="D18">
-        <v>8.603701420775398</v>
+        <v>6.365386750228562</v>
       </c>
       <c r="E18">
-        <v>5.981679957178802</v>
+        <v>10.60098380999289</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.052185765556461</v>
+        <v>3.636338728324107</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.42448133324435</v>
+        <v>22.67035128264486</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.373621626679745</v>
+        <v>10.13037831294515</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.51951391356894</v>
+        <v>23.79701131811753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.07787841899856</v>
+        <v>19.55877338700335</v>
       </c>
       <c r="C19">
-        <v>16.9056481168392</v>
+        <v>10.79418874013353</v>
       </c>
       <c r="D19">
-        <v>8.564435840034136</v>
+        <v>6.354421781841227</v>
       </c>
       <c r="E19">
-        <v>5.987736088380229</v>
+        <v>10.60441382278814</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.052790021109755</v>
+        <v>3.636542417328632</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.43294902484048</v>
+        <v>22.68109527269633</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.348754570686477</v>
+        <v>10.1268311302231</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.48698383009348</v>
+        <v>23.80112863429962</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.64894173177963</v>
+        <v>19.79710963574201</v>
       </c>
       <c r="C20">
-        <v>17.19270326423607</v>
+        <v>10.93766973377762</v>
       </c>
       <c r="D20">
-        <v>8.740103179297186</v>
+        <v>6.403731098254921</v>
       </c>
       <c r="E20">
-        <v>5.960822612146822</v>
+        <v>10.58909859828285</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.050076397135751</v>
+        <v>3.635631306088964</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.39698409675049</v>
+        <v>22.63319049064577</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.460456814054043</v>
+        <v>10.14290323329966</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.63516281336995</v>
+        <v>23.78313727347189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.5022740864715</v>
+        <v>20.57876202183958</v>
       </c>
       <c r="C21">
-        <v>18.12801626982172</v>
+        <v>11.40489668385776</v>
       </c>
       <c r="D21">
-        <v>9.312498940800872</v>
+        <v>6.568631980747866</v>
       </c>
       <c r="E21">
-        <v>5.876565055487201</v>
+        <v>10.53974456346608</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.041049848235611</v>
+        <v>3.632666275185899</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.31573070176335</v>
+        <v>22.48003904478947</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.832048309749187</v>
+        <v>10.19878773740736</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.16476743482297</v>
+        <v>23.73212222547436</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.66555995762319</v>
+        <v>21.0747070975616</v>
       </c>
       <c r="C22">
-        <v>18.71767584381988</v>
+        <v>11.6989713270653</v>
       </c>
       <c r="D22">
-        <v>9.673611559279387</v>
+        <v>6.67562709997281</v>
       </c>
       <c r="E22">
-        <v>5.826380228322153</v>
+        <v>10.50905540888364</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.035209227986116</v>
+        <v>3.630799799212771</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.29474896934539</v>
+        <v>22.38579216692609</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.071961880081087</v>
+        <v>10.23667882811614</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.53503840693301</v>
+        <v>23.70585275733855</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.04903307549819</v>
+        <v>20.81141552028959</v>
       </c>
       <c r="C23">
-        <v>18.40493278116934</v>
+        <v>11.54306357095991</v>
       </c>
       <c r="D23">
-        <v>9.482046664487664</v>
+        <v>6.618605509318959</v>
       </c>
       <c r="E23">
-        <v>5.852698809671089</v>
+        <v>10.52529149953148</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.038321703295281</v>
+        <v>3.631789466414222</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.30283769445137</v>
+        <v>22.4355565019533</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.944194223541135</v>
+        <v>10.21633296919895</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.3351783681634</v>
+        <v>23.71922368716117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.6178293941093</v>
+        <v>19.78409150835873</v>
       </c>
       <c r="C24">
-        <v>17.1770494215497</v>
+        <v>10.92984570378361</v>
       </c>
       <c r="D24">
-        <v>8.730524161119558</v>
+        <v>6.401025640109298</v>
       </c>
       <c r="E24">
-        <v>5.962278056423744</v>
+        <v>10.58993172330801</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.050225052784258</v>
+        <v>3.635680977270975</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.39881677092181</v>
+        <v>22.63579191974307</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.454336104768299</v>
+        <v>10.1420134484946</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.62690739428686</v>
+        <v>23.78408989305776</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.78469216626119</v>
+        <v>18.6164214725716</v>
       </c>
       <c r="C25">
-        <v>15.75923432162627</v>
+        <v>10.22144788717174</v>
       </c>
       <c r="D25">
-        <v>7.862237086160922</v>
+        <v>6.164329379514704</v>
       </c>
       <c r="E25">
-        <v>6.099658205129915</v>
+        <v>10.66638839184398</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.063373308669534</v>
+        <v>3.64018712277908</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.62350508390023</v>
+        <v>22.87667771648175</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.914591241818783</v>
+        <v>10.06795426002562</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.9633141256857</v>
+        <v>23.88414595858163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71117788448332</v>
+        <v>24.51219804174315</v>
       </c>
       <c r="C2">
-        <v>9.661469030192695</v>
+        <v>14.63499351068523</v>
       </c>
       <c r="D2">
-        <v>5.989860096844992</v>
+        <v>7.171265221831972</v>
       </c>
       <c r="E2">
-        <v>10.72848934388817</v>
+        <v>6.215596126210397</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.64377339384029</v>
+        <v>2.07337764373072</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.07526773664336</v>
+        <v>13.87563016227349</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.01890219430437</v>
+        <v>7.509293286677128</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.98335557137605</v>
+        <v>16.55666812530599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.07286101768012</v>
+        <v>22.85329528074864</v>
       </c>
       <c r="C3">
-        <v>9.259337782351659</v>
+        <v>13.82351560324809</v>
       </c>
       <c r="D3">
-        <v>5.872329053787829</v>
+        <v>6.669796671218514</v>
       </c>
       <c r="E3">
-        <v>10.77420638434491</v>
+        <v>6.302655403291365</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.646372829342612</v>
+        <v>2.080385323094334</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.22300447214236</v>
+        <v>14.09249371882886</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.989179164861625</v>
+        <v>7.231002295052265</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.06633309052217</v>
+        <v>16.32946091461895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67009769285838</v>
+        <v>21.77532841318755</v>
       </c>
       <c r="C4">
-        <v>9.001820436786817</v>
+        <v>13.30119133993328</v>
       </c>
       <c r="D4">
-        <v>5.800802879549401</v>
+        <v>6.345219080771476</v>
       </c>
       <c r="E4">
-        <v>10.80407056797581</v>
+        <v>6.360082484349109</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.648052754573518</v>
+        <v>2.084808183345739</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.32017252398105</v>
+        <v>14.24589161455194</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.972696776110352</v>
+        <v>7.05888681455852</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.12497903031254</v>
+        <v>16.21271639590224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.50348254199347</v>
+        <v>21.32100130280794</v>
       </c>
       <c r="C5">
-        <v>8.894310697397648</v>
+        <v>13.08237034256699</v>
       </c>
       <c r="D5">
-        <v>5.771860426893751</v>
+        <v>6.214549049691257</v>
       </c>
       <c r="E5">
-        <v>10.81669189474239</v>
+        <v>6.384454239919839</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.648758496418333</v>
+        <v>2.086641816405349</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.36138854352884</v>
+        <v>14.31315483818421</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.966429102599742</v>
+        <v>6.988528270459556</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.15080290365828</v>
+        <v>16.17068118142148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.47567352544783</v>
+        <v>21.24464862148115</v>
       </c>
       <c r="C6">
-        <v>8.876306741751888</v>
+        <v>13.04567770953951</v>
       </c>
       <c r="D6">
-        <v>5.767068245224608</v>
+        <v>6.195108642395036</v>
       </c>
       <c r="E6">
-        <v>10.81881493308665</v>
+        <v>6.388558919086483</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.648876964335483</v>
+        <v>2.086948209482162</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.36833010340684</v>
+        <v>14.32460147649114</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.965415604937482</v>
+        <v>6.976834882808521</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.15520690088421</v>
+        <v>16.16403001808194</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66786039494869</v>
+        <v>21.76926226941627</v>
       </c>
       <c r="C7">
-        <v>9.000380786354823</v>
+        <v>13.29826428397993</v>
       </c>
       <c r="D7">
-        <v>5.800411662243688</v>
+        <v>6.343395352395914</v>
       </c>
       <c r="E7">
-        <v>10.80423895526849</v>
+        <v>6.360407280475182</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.648062186690457</v>
+        <v>2.084832784322025</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.3207218271938</v>
+        <v>14.24677993603581</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.972610424275501</v>
+        <v>7.057938696505047</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.12531951928944</v>
+        <v>16.21212732558925</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.49347060447833</v>
+        <v>23.95246729843558</v>
       </c>
       <c r="C8">
-        <v>9.52507022743854</v>
+        <v>14.36023470421411</v>
       </c>
       <c r="D8">
-        <v>5.949229493935099</v>
+        <v>7.001793397310482</v>
       </c>
       <c r="E8">
-        <v>10.74388051718105</v>
+        <v>6.244771377096208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.644652316640766</v>
+        <v>2.075769629656927</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.12486449394033</v>
+        <v>13.94599222606077</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.00828966140699</v>
+        <v>7.413649285099089</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.01036251249583</v>
+        <v>16.47349848660216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.01724152691436</v>
+        <v>27.7676634645819</v>
       </c>
       <c r="C9">
-        <v>10.46618683881747</v>
+        <v>16.24933124095357</v>
       </c>
       <c r="D9">
-        <v>6.244196950641116</v>
+        <v>8.162611634733882</v>
       </c>
       <c r="E9">
-        <v>10.63973302164413</v>
+        <v>6.050978351484339</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.638627729650044</v>
+        <v>2.058897732074704</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.79222518462969</v>
+        <v>13.53322066635608</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.09206491455631</v>
+        <v>8.097777846365593</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.84645094375662</v>
+        <v>17.17379452216564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.06785006296975</v>
+        <v>30.29404031143655</v>
       </c>
       <c r="C10">
-        <v>11.10005955179574</v>
+        <v>17.51764437651275</v>
       </c>
       <c r="D10">
-        <v>6.460307712340104</v>
+        <v>8.938939819690502</v>
       </c>
       <c r="E10">
-        <v>10.5718577999614</v>
+        <v>5.93093782260769</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.63460059118349</v>
+        <v>2.046972839681491</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.57947466802527</v>
+        <v>13.36237396063666</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.16171618618792</v>
+        <v>8.588257051639449</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.76410125330559</v>
+        <v>17.81106713518124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.52896813591924</v>
+        <v>31.38499259492648</v>
       </c>
       <c r="C11">
-        <v>11.37527455712974</v>
+        <v>18.0686722570035</v>
       </c>
       <c r="D11">
-        <v>6.557987826154276</v>
+        <v>9.276171527958558</v>
       </c>
       <c r="E11">
-        <v>10.54285131291695</v>
+        <v>5.881746419851004</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.632854239816731</v>
+        <v>2.041631139082974</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.4896229472925</v>
+        <v>13.31917855346054</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.19508601962532</v>
+        <v>8.808138041176257</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.73501657131639</v>
+        <v>18.12905241756554</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.70103406935698</v>
+        <v>31.78986972133614</v>
       </c>
       <c r="C12">
-        <v>11.47755907197065</v>
+        <v>18.27362215536541</v>
       </c>
       <c r="D12">
-        <v>6.594846745146757</v>
+        <v>9.401641708415161</v>
       </c>
       <c r="E12">
-        <v>10.53213596080057</v>
+        <v>5.863951348906171</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.632205179504199</v>
+        <v>2.039618587151198</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.45660058095287</v>
+        <v>13.30829051946327</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.20795764283464</v>
+        <v>8.890898920524938</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.72521553318078</v>
+        <v>18.25360167852846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.66409190682555</v>
+        <v>31.70303644731309</v>
       </c>
       <c r="C13">
-        <v>11.45561689116999</v>
+        <v>18.22964722599497</v>
       </c>
       <c r="D13">
-        <v>6.586914929805656</v>
+        <v>9.37471777642784</v>
       </c>
       <c r="E13">
-        <v>10.53443175228434</v>
+        <v>5.867745886266422</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.632344422703104</v>
+        <v>2.040051599750027</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.4636678522028</v>
+        <v>13.31038401290153</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.20517516534092</v>
+        <v>8.873097743568751</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.72727230470037</v>
+        <v>18.22659239315509</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.54317589646254</v>
+        <v>31.41846643802044</v>
       </c>
       <c r="C14">
-        <v>11.38372854295067</v>
+        <v>18.08560786600647</v>
       </c>
       <c r="D14">
-        <v>6.56102306612856</v>
+        <v>9.286538426959185</v>
       </c>
       <c r="E14">
-        <v>10.54196436871043</v>
+        <v>5.88026539278609</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.632800596202709</v>
+        <v>2.041465370394142</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.48688604980221</v>
+        <v>13.31817023291893</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.19614030425024</v>
+        <v>8.814957089156279</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.73418588553051</v>
+        <v>18.13921575889746</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.46877569655037</v>
+        <v>31.24308997366059</v>
       </c>
       <c r="C15">
-        <v>11.33944187149084</v>
+        <v>17.99689686583965</v>
       </c>
       <c r="D15">
-        <v>6.545145420861978</v>
+        <v>9.232237113538003</v>
       </c>
       <c r="E15">
-        <v>10.54661331145718</v>
+        <v>5.888044080756974</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.633081608353573</v>
+        <v>2.042332625498896</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.50123860816261</v>
+        <v>13.32366700738285</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.19063660251876</v>
+        <v>8.779277800251952</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.73857881258067</v>
+        <v>18.08623630047394</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.03736496184175</v>
+        <v>30.22158264986318</v>
       </c>
       <c r="C16">
-        <v>11.0818052943662</v>
+        <v>17.4811126817908</v>
       </c>
       <c r="D16">
-        <v>6.453907959081977</v>
+        <v>8.916585352583731</v>
       </c>
       <c r="E16">
-        <v>10.57379106215284</v>
+        <v>5.934266054502102</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.634716436462514</v>
+        <v>2.04732346044984</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.58548664469919</v>
+        <v>13.3659343483092</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.15956869666263</v>
+        <v>8.573818662727305</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.76617127752787</v>
+        <v>17.79085963695025</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.76830352593285</v>
+        <v>29.58008530397666</v>
       </c>
       <c r="C17">
-        <v>10.9203549753918</v>
+        <v>17.15806111666501</v>
       </c>
       <c r="D17">
-        <v>6.39774640847906</v>
+        <v>8.718904633289599</v>
       </c>
       <c r="E17">
-        <v>10.59094263129646</v>
+        <v>5.964045441405105</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.635741231176686</v>
+        <v>2.05040526895154</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.63894917812513</v>
+        <v>13.40105993876576</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.14093618194216</v>
+        <v>8.446916105209306</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.78524983504497</v>
+        <v>17.61692050248856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.61197111263319</v>
+        <v>29.20561574243898</v>
       </c>
       <c r="C18">
-        <v>10.8262586628969</v>
+        <v>16.96980744642705</v>
       </c>
       <c r="D18">
-        <v>6.365386750228562</v>
+        <v>8.603701420775398</v>
       </c>
       <c r="E18">
-        <v>10.60098380999289</v>
+        <v>5.981679957178748</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.636338728324107</v>
+        <v>2.052185765556595</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.67035128264486</v>
+        <v>13.42448133324435</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.13037831294515</v>
+        <v>8.373621626679752</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.79701131811753</v>
+        <v>17.519513913569</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.55877338700335</v>
+        <v>29.07787841899857</v>
       </c>
       <c r="C19">
-        <v>10.79418874013353</v>
+        <v>16.9056481168392</v>
       </c>
       <c r="D19">
-        <v>6.354421781841227</v>
+        <v>8.564435840034076</v>
       </c>
       <c r="E19">
-        <v>10.60441382278814</v>
+        <v>5.987736088380291</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.636542417328632</v>
+        <v>2.052790021109757</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.68109527269633</v>
+        <v>13.4329490248405</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.1268311302231</v>
+        <v>8.348754570686488</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.80112863429962</v>
+        <v>17.48698383009349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.79710963574201</v>
+        <v>29.64894173177965</v>
       </c>
       <c r="C20">
-        <v>10.93766973377762</v>
+        <v>17.19270326423615</v>
       </c>
       <c r="D20">
-        <v>6.403731098254921</v>
+        <v>8.740103179297204</v>
       </c>
       <c r="E20">
-        <v>10.58909859828285</v>
+        <v>5.960822612146835</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.635631306088964</v>
+        <v>2.050076397135886</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.63319049064577</v>
+        <v>13.39698409675051</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.14290323329966</v>
+        <v>8.460456814054041</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.78313727347189</v>
+        <v>17.63516281336995</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.57876202183958</v>
+        <v>31.50227408647153</v>
       </c>
       <c r="C21">
-        <v>11.40489668385776</v>
+        <v>18.12801626982158</v>
       </c>
       <c r="D21">
-        <v>6.568631980747866</v>
+        <v>9.312498940800856</v>
       </c>
       <c r="E21">
-        <v>10.53974456346608</v>
+        <v>5.876565055487219</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.632666275185899</v>
+        <v>2.041049848235742</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.48003904478947</v>
+        <v>13.31573070176338</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.19878773740736</v>
+        <v>8.832048309749222</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.73212222547436</v>
+        <v>18.16476743482302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.0747070975616</v>
+        <v>32.66555995762319</v>
       </c>
       <c r="C22">
-        <v>11.6989713270653</v>
+        <v>18.71767584381987</v>
       </c>
       <c r="D22">
-        <v>6.67562709997281</v>
+        <v>9.673611559279401</v>
       </c>
       <c r="E22">
-        <v>10.50905540888364</v>
+        <v>5.826380228322153</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.630799799212771</v>
+        <v>2.035209227986249</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.38579216692609</v>
+        <v>13.29474896934539</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.23667882811614</v>
+        <v>9.071961880081087</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.70585275733855</v>
+        <v>18.53503840693301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.81141552028959</v>
+        <v>32.04903307549825</v>
       </c>
       <c r="C23">
-        <v>11.54306357095991</v>
+        <v>18.40493278116942</v>
       </c>
       <c r="D23">
-        <v>6.618605509318959</v>
+        <v>9.482046664487575</v>
       </c>
       <c r="E23">
-        <v>10.52529149953148</v>
+        <v>5.852698809671142</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.631789466414222</v>
+        <v>2.038321703295278</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.4355565019533</v>
+        <v>13.30283769445131</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.21633296919895</v>
+        <v>8.944194223541157</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.71922368716117</v>
+        <v>18.33517836816337</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.78409150835873</v>
+        <v>29.61782939410925</v>
       </c>
       <c r="C24">
-        <v>10.92984570378361</v>
+        <v>17.17704942154966</v>
       </c>
       <c r="D24">
-        <v>6.401025640109298</v>
+        <v>8.730524161119565</v>
       </c>
       <c r="E24">
-        <v>10.58993172330801</v>
+        <v>5.962278056423752</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.635680977270975</v>
+        <v>2.050225052784258</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.63579191974307</v>
+        <v>13.39881677092191</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.1420134484946</v>
+        <v>8.454336104768306</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.78408989305776</v>
+        <v>17.62690739428692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.6164214725716</v>
+        <v>26.78469216626109</v>
       </c>
       <c r="C25">
-        <v>10.22144788717174</v>
+        <v>15.75923432162617</v>
       </c>
       <c r="D25">
-        <v>6.164329379514704</v>
+        <v>7.862237086160991</v>
       </c>
       <c r="E25">
-        <v>10.66638839184398</v>
+        <v>6.099658205129859</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.64018712277908</v>
+        <v>2.063373308669669</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.87667771648175</v>
+        <v>13.62350508390049</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.06795426002562</v>
+        <v>7.914591241818755</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.88414595858163</v>
+        <v>16.9633141256859</v>
       </c>
     </row>
   </sheetData>
